--- a/data/pre-raw/SM10K-2023-preraw.xlsx
+++ b/data/pre-raw/SM10K-2023-preraw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan_m\Documents\0. Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan_m\Documents\0-Code\data\pre-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336673B-7627-4D86-9AE9-44E31AF2DA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573690C2-C425-48B7-B1C1-0CF69CEE79CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C1EA2E36-B3BE-45C0-B0FF-E4EF19C6BD52}"/>
+    <workbookView xWindow="33975" yWindow="1875" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{C1EA2E36-B3BE-45C0-B0FF-E4EF19C6BD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="553">
   <si>
     <t>Rang</t>
   </si>
@@ -1691,6 +1691,12 @@
   </si>
   <si>
     <t>Joel</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>s_per_k</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2196,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="4">
-        <f>IF(C2&gt;=20, C2+1900, C2+2000)</f>
+        <f t="shared" ref="I2:I33" si="0">IF(C2&gt;=20, C2+1900, C2+2000)</f>
         <v>1993</v>
       </c>
       <c r="J2" s="5">
@@ -2202,11 +2208,11 @@
         <v>175</v>
       </c>
       <c r="L2" t="str">
-        <f>LEFT(B2, FIND(" ", B2) - 1)</f>
+        <f t="shared" ref="L2:L33" si="1">LEFT(B2, FIND(" ", B2) - 1)</f>
         <v>Morgan</v>
       </c>
       <c r="M2" t="str">
-        <f>RIGHT(B2, LEN(B2) - FIND(" ", B2))</f>
+        <f t="shared" ref="M2:M33" si="2">RIGHT(B2, LEN(B2) - FIND(" ", B2))</f>
         <v>Le Guen</v>
       </c>
       <c r="N2" t="str">
@@ -2214,7 +2220,7 @@
         <v>Le-Guen</v>
       </c>
       <c r="O2" t="str">
-        <f>SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND(" ", B2)), " ", "-")</f>
+        <f t="shared" ref="O2:O33" si="3">SUBSTITUTE(RIGHT(B2, LEN(B2) - FIND(" ", B2)), " ", "-")</f>
         <v>Le-Guen</v>
       </c>
       <c r="P2" t="str">
@@ -2274,39 +2280,39 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="4">
-        <f>IF(C3&gt;=20, C3+1900, C3+2000)</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J66" si="0">(HOUR(F3)+24)*60 + MINUTE(F3)</f>
+        <f t="shared" ref="J3:J66" si="4">(HOUR(F3)+24)*60 + MINUTE(F3)</f>
         <v>1762</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K66" si="1">HOUR(G3)*60 + MINUTE(G3)</f>
+        <f t="shared" ref="K3:K66" si="5">HOUR(G3)*60 + MINUTE(G3)</f>
         <v>176</v>
       </c>
       <c r="L3" t="str">
-        <f>LEFT(B3, FIND(" ", B3) - 1)</f>
+        <f t="shared" si="1"/>
         <v>Rüttimann</v>
       </c>
       <c r="M3" t="str">
-        <f>RIGHT(B3, LEN(B3) - FIND(" ", B3))</f>
+        <f t="shared" si="2"/>
         <v>Eric</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="2">SUBSTITUTE(M3, " ", "-")</f>
+        <f t="shared" ref="N3:N66" si="6">SUBSTITUTE(M3, " ", "-")</f>
         <v>Eric</v>
       </c>
       <c r="O3" t="str">
-        <f>SUBSTITUTE(RIGHT(B3, LEN(B3) - FIND(" ", B3)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Eric</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="3">SUBSTITUTE(D3, " ", "-")</f>
+        <f t="shared" ref="P3:P66" si="7">SUBSTITUTE(D3, " ", "-")</f>
         <v>Untereggen</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="4">SUBSTITUTE(E3, " ", "-")</f>
+        <f t="shared" ref="Q3:Q66" si="8">SUBSTITUTE(E3, " ", "-")</f>
         <v>LC-Uster</v>
       </c>
       <c r="S3">
@@ -2358,39 +2364,39 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="4">
-        <f>IF(C4&gt;=20, C4+1900, C4+2000)</f>
+        <f t="shared" si="0"/>
         <v>1989</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1767</v>
       </c>
       <c r="K4" s="5">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>176</v>
-      </c>
-      <c r="L4" t="str">
-        <f>LEFT(B4, FIND(" ", B4) - 1)</f>
         <v>Lehmann</v>
       </c>
       <c r="M4" t="str">
-        <f>RIGHT(B4, LEN(B4) - FIND(" ", B4))</f>
-        <v>Adrian</v>
-      </c>
-      <c r="N4" t="str">
         <f t="shared" si="2"/>
         <v>Adrian</v>
       </c>
+      <c r="N4" t="str">
+        <f t="shared" si="6"/>
+        <v>Adrian</v>
+      </c>
       <c r="O4" t="str">
-        <f>SUBSTITUTE(RIGHT(B4, LEN(B4) - FIND(" ", B4)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Adrian</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Langenthal</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LV-Langenthal</v>
       </c>
       <c r="S4">
@@ -2442,39 +2448,39 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4">
-        <f>IF(C5&gt;=20, C5+1900, C5+2000)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1781</v>
       </c>
       <c r="K5" s="5">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="L5" t="str">
-        <f>LEFT(B5, FIND(" ", B5) - 1)</f>
         <v>Noti</v>
       </c>
       <c r="M5" t="str">
-        <f>RIGHT(B5, LEN(B5) - FIND(" ", B5))</f>
-        <v>Luca</v>
-      </c>
-      <c r="N5" t="str">
         <f t="shared" si="2"/>
         <v>Luca</v>
       </c>
+      <c r="N5" t="str">
+        <f t="shared" si="6"/>
+        <v>Luca</v>
+      </c>
       <c r="O5" t="str">
-        <f>SUBSTITUTE(RIGHT(B5, LEN(B5) - FIND(" ", B5)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Luca</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bern</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB-Leichtathletik</v>
       </c>
       <c r="S5">
@@ -2526,39 +2532,39 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4">
-        <f>IF(C6&gt;=20, C6+1900, C6+2000)</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1797</v>
       </c>
       <c r="K6" s="5">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="L6" t="str">
-        <f>LEFT(B6, FIND(" ", B6) - 1)</f>
         <v>Schönenberger</v>
       </c>
       <c r="M6" t="str">
-        <f>RIGHT(B6, LEN(B6) - FIND(" ", B6))</f>
-        <v>Urs</v>
-      </c>
-      <c r="N6" t="str">
         <f t="shared" si="2"/>
         <v>Urs</v>
       </c>
+      <c r="N6" t="str">
+        <f t="shared" si="6"/>
+        <v>Urs</v>
+      </c>
       <c r="O6" t="str">
-        <f>SUBSTITUTE(RIGHT(B6, LEN(B6) - FIND(" ", B6)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Urs</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Zürich</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Regensdorf</v>
       </c>
       <c r="S6">
@@ -2610,39 +2616,39 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4">
-        <f>IF(C7&gt;=20, C7+1900, C7+2000)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1805</v>
       </c>
       <c r="K7" s="5">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="L7" t="str">
-        <f>LEFT(B7, FIND(" ", B7) - 1)</f>
         <v>Cachelin</v>
       </c>
       <c r="M7" t="str">
-        <f>RIGHT(B7, LEN(B7) - FIND(" ", B7))</f>
-        <v>Guillaume</v>
-      </c>
-      <c r="N7" t="str">
         <f t="shared" si="2"/>
         <v>Guillaume</v>
       </c>
+      <c r="N7" t="str">
+        <f t="shared" si="6"/>
+        <v>Guillaume</v>
+      </c>
       <c r="O7" t="str">
-        <f>SUBSTITUTE(RIGHT(B7, LEN(B7) - FIND(" ", B7)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Guillaume</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Petit-Lancy</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Stade-Genève</v>
       </c>
       <c r="S7">
@@ -2694,39 +2700,39 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4">
-        <f>IF(C8&gt;=20, C8+1900, C8+2000)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1816</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="L8" t="str">
-        <f>LEFT(B8, FIND(" ", B8) - 1)</f>
         <v>Bussy</v>
       </c>
       <c r="M8" t="str">
-        <f>RIGHT(B8, LEN(B8) - FIND(" ", B8))</f>
-        <v>Wondimu</v>
-      </c>
-      <c r="N8" t="str">
         <f t="shared" si="2"/>
         <v>Wondimu</v>
       </c>
+      <c r="N8" t="str">
+        <f t="shared" si="6"/>
+        <v>Wondimu</v>
+      </c>
       <c r="O8" t="str">
-        <f>SUBSTITUTE(RIGHT(B8, LEN(B8) - FIND(" ", B8)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Wondimu</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Genève</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Invia</v>
       </c>
       <c r="S8">
@@ -2778,39 +2784,39 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4">
-        <f>IF(C9&gt;=20, C9+1900, C9+2000)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1818</v>
       </c>
       <c r="K9" s="5">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="L9" t="str">
-        <f>LEFT(B9, FIND(" ", B9) - 1)</f>
         <v>Christen</v>
       </c>
       <c r="M9" t="str">
-        <f>RIGHT(B9, LEN(B9) - FIND(" ", B9))</f>
+        <f t="shared" si="2"/>
         <v>Maurice Etienne</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Maurice-Etienne</v>
       </c>
       <c r="O9" t="str">
-        <f>SUBSTITUTE(RIGHT(B9, LEN(B9) - FIND(" ", B9)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Maurice-Etienne</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bern</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB-Leichtathletik</v>
       </c>
       <c r="S9">
@@ -2862,39 +2868,39 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4">
-        <f>IF(C10&gt;=20, C10+1900, C10+2000)</f>
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1823</v>
       </c>
       <c r="K10" s="5">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="L10" t="str">
-        <f>LEFT(B10, FIND(" ", B10) - 1)</f>
         <v>Lädermann</v>
       </c>
       <c r="M10" t="str">
-        <f>RIGHT(B10, LEN(B10) - FIND(" ", B10))</f>
-        <v>Léo</v>
-      </c>
-      <c r="N10" t="str">
         <f t="shared" si="2"/>
         <v>Léo</v>
       </c>
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v>Léo</v>
+      </c>
       <c r="O10" t="str">
-        <f>SUBSTITUTE(RIGHT(B10, LEN(B10) - FIND(" ", B10)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Léo</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Carouge-GE</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>CHP-Genève</v>
       </c>
       <c r="S10">
@@ -2946,39 +2952,39 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4">
-        <f>IF(C11&gt;=20, C11+1900, C11+2000)</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1827</v>
       </c>
       <c r="K11" s="5">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="L11" t="str">
-        <f>LEFT(B11, FIND(" ", B11) - 1)</f>
         <v>Engelhardt</v>
       </c>
       <c r="M11" t="str">
-        <f>RIGHT(B11, LEN(B11) - FIND(" ", B11))</f>
-        <v>Adriano</v>
-      </c>
-      <c r="N11" t="str">
         <f t="shared" si="2"/>
         <v>Adriano</v>
       </c>
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v>Adriano</v>
+      </c>
       <c r="O11" t="str">
-        <f>SUBSTITUTE(RIGHT(B11, LEN(B11) - FIND(" ", B11)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Adriano</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Gland</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>KeForma.team</v>
       </c>
       <c r="S11">
@@ -3030,39 +3036,39 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="4">
-        <f>IF(C12&gt;=20, C12+1900, C12+2000)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1832</v>
       </c>
       <c r="K12" s="5">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="L12" t="str">
-        <f>LEFT(B12, FIND(" ", B12) - 1)</f>
         <v>Pellaz</v>
       </c>
       <c r="M12" t="str">
-        <f>RIGHT(B12, LEN(B12) - FIND(" ", B12))</f>
-        <v>Loris</v>
-      </c>
-      <c r="N12" t="str">
         <f t="shared" si="2"/>
         <v>Loris</v>
       </c>
+      <c r="N12" t="str">
+        <f t="shared" si="6"/>
+        <v>Loris</v>
+      </c>
       <c r="O12" t="str">
-        <f>SUBSTITUTE(RIGHT(B12, LEN(B12) - FIND(" ", B12)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Loris</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Granges-VS</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Regensdorf</v>
       </c>
       <c r="S12">
@@ -3114,39 +3120,39 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4">
-        <f>IF(C13&gt;=20, C13+1900, C13+2000)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1837</v>
       </c>
       <c r="K13" s="5">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="L13" t="str">
-        <f>LEFT(B13, FIND(" ", B13) - 1)</f>
         <v>Gächter</v>
       </c>
       <c r="M13" t="str">
-        <f>RIGHT(B13, LEN(B13) - FIND(" ", B13))</f>
-        <v>Janis</v>
-      </c>
-      <c r="N13" t="str">
         <f t="shared" si="2"/>
         <v>Janis</v>
       </c>
+      <c r="N13" t="str">
+        <f t="shared" si="6"/>
+        <v>Janis</v>
+      </c>
       <c r="O13" t="str">
-        <f>SUBSTITUTE(RIGHT(B13, LEN(B13) - FIND(" ", B13)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Janis</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Niederurnen</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Uster</v>
       </c>
       <c r="S13">
@@ -3198,39 +3204,39 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4">
-        <f>IF(C14&gt;=20, C14+1900, C14+2000)</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1838</v>
       </c>
       <c r="K14" s="5">
+        <f t="shared" si="5"/>
+        <v>183</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="L14" t="str">
-        <f>LEFT(B14, FIND(" ", B14) - 1)</f>
         <v>Lussy</v>
       </c>
       <c r="M14" t="str">
-        <f>RIGHT(B14, LEN(B14) - FIND(" ", B14))</f>
-        <v>Florian</v>
-      </c>
-      <c r="N14" t="str">
         <f t="shared" si="2"/>
         <v>Florian</v>
       </c>
+      <c r="N14" t="str">
+        <f t="shared" si="6"/>
+        <v>Florian</v>
+      </c>
       <c r="O14" t="str">
-        <f>SUBSTITUTE(RIGHT(B14, LEN(B14) - FIND(" ", B14)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Florian</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Oberdorf-NW</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB-Leichtathletik</v>
       </c>
       <c r="S14">
@@ -3282,39 +3288,39 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4">
-        <f>IF(C15&gt;=20, C15+1900, C15+2000)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1862</v>
       </c>
       <c r="K15" s="5">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
-      <c r="L15" t="str">
-        <f>LEFT(B15, FIND(" ", B15) - 1)</f>
         <v>Irarragorri</v>
       </c>
       <c r="M15" t="str">
-        <f>RIGHT(B15, LEN(B15) - FIND(" ", B15))</f>
-        <v>Camilo</v>
-      </c>
-      <c r="N15" t="str">
         <f t="shared" si="2"/>
         <v>Camilo</v>
       </c>
+      <c r="N15" t="str">
+        <f t="shared" si="6"/>
+        <v>Camilo</v>
+      </c>
       <c r="O15" t="str">
-        <f>SUBSTITUTE(RIGHT(B15, LEN(B15) - FIND(" ", B15)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Camilo</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Herrliberg</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SSC-Athletics</v>
       </c>
       <c r="S15">
@@ -3366,39 +3372,39 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="4">
-        <f>IF(C16&gt;=20, C16+1900, C16+2000)</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1873</v>
       </c>
       <c r="K16" s="5">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="L16" t="str">
-        <f>LEFT(B16, FIND(" ", B16) - 1)</f>
         <v>Keller</v>
       </c>
       <c r="M16" t="str">
-        <f>RIGHT(B16, LEN(B16) - FIND(" ", B16))</f>
-        <v>David</v>
-      </c>
-      <c r="N16" t="str">
         <f t="shared" si="2"/>
         <v>David</v>
       </c>
+      <c r="N16" t="str">
+        <f t="shared" si="6"/>
+        <v>David</v>
+      </c>
       <c r="O16" t="str">
-        <f>SUBSTITUTE(RIGHT(B16, LEN(B16) - FIND(" ", B16)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>David</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Dietikon</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S16">
@@ -3450,39 +3456,39 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4">
-        <f>IF(C17&gt;=20, C17+1900, C17+2000)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1874</v>
       </c>
       <c r="K17" s="5">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="L17" t="str">
-        <f>LEFT(B17, FIND(" ", B17) - 1)</f>
         <v>Herren</v>
       </c>
       <c r="M17" t="str">
-        <f>RIGHT(B17, LEN(B17) - FIND(" ", B17))</f>
-        <v>Dominik</v>
-      </c>
-      <c r="N17" t="str">
         <f t="shared" si="2"/>
         <v>Dominik</v>
       </c>
+      <c r="N17" t="str">
+        <f t="shared" si="6"/>
+        <v>Dominik</v>
+      </c>
       <c r="O17" t="str">
-        <f>SUBSTITUTE(RIGHT(B17, LEN(B17) - FIND(" ", B17)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Dominik</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Liebefeld</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB-Leichtathletik</v>
       </c>
       <c r="S17">
@@ -3534,39 +3540,39 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="4">
-        <f>IF(C18&gt;=20, C18+1900, C18+2000)</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1881</v>
       </c>
       <c r="K18" s="5">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="L18" t="str">
-        <f>LEFT(B18, FIND(" ", B18) - 1)</f>
         <v>Coendet</v>
       </c>
       <c r="M18" t="str">
-        <f>RIGHT(B18, LEN(B18) - FIND(" ", B18))</f>
-        <v>Andy</v>
-      </c>
-      <c r="N18" t="str">
         <f t="shared" si="2"/>
         <v>Andy</v>
       </c>
+      <c r="N18" t="str">
+        <f t="shared" si="6"/>
+        <v>Andy</v>
+      </c>
       <c r="O18" t="str">
-        <f>SUBSTITUTE(RIGHT(B18, LEN(B18) - FIND(" ", B18)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Andy</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bernex</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Stade-Genève</v>
       </c>
       <c r="S18">
@@ -3618,39 +3624,39 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="4">
-        <f>IF(C19&gt;=20, C19+1900, C19+2000)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1895</v>
       </c>
       <c r="K19" s="5">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="L19" t="str">
-        <f>LEFT(B19, FIND(" ", B19) - 1)</f>
         <v>Renner</v>
       </c>
       <c r="M19" t="str">
-        <f>RIGHT(B19, LEN(B19) - FIND(" ", B19))</f>
-        <v>Roman</v>
-      </c>
-      <c r="N19" t="str">
         <f t="shared" si="2"/>
         <v>Roman</v>
       </c>
+      <c r="N19" t="str">
+        <f t="shared" si="6"/>
+        <v>Roman</v>
+      </c>
       <c r="O19" t="str">
-        <f>SUBSTITUTE(RIGHT(B19, LEN(B19) - FIND(" ", B19)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Roman</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Meierskappel</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TSV-2001-Rotkreuz</v>
       </c>
       <c r="S19">
@@ -3702,39 +3708,39 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="4">
-        <f>IF(C20&gt;=20, C20+1900, C20+2000)</f>
+        <f t="shared" si="0"/>
         <v>1985</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1898</v>
       </c>
       <c r="K20" s="5">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="L20" t="str">
-        <f>LEFT(B20, FIND(" ", B20) - 1)</f>
         <v>Leboeuf</v>
       </c>
       <c r="M20" t="str">
-        <f>RIGHT(B20, LEN(B20) - FIND(" ", B20))</f>
-        <v>François</v>
-      </c>
-      <c r="N20" t="str">
         <f t="shared" si="2"/>
         <v>François</v>
       </c>
+      <c r="N20" t="str">
+        <f t="shared" si="6"/>
+        <v>François</v>
+      </c>
       <c r="O20" t="str">
-        <f>SUBSTITUTE(RIGHT(B20, LEN(B20) - FIND(" ", B20)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>François</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Aigle</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>CABV-Martigny</v>
       </c>
       <c r="S20">
@@ -3786,39 +3792,39 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="4">
-        <f>IF(C21&gt;=20, C21+1900, C21+2000)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1900</v>
       </c>
       <c r="K21" s="5">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="L21" t="str">
-        <f>LEFT(B21, FIND(" ", B21) - 1)</f>
         <v>Schaub</v>
       </c>
       <c r="M21" t="str">
-        <f>RIGHT(B21, LEN(B21) - FIND(" ", B21))</f>
-        <v>Jonas</v>
-      </c>
-      <c r="N21" t="str">
         <f t="shared" si="2"/>
         <v>Jonas</v>
       </c>
+      <c r="N21" t="str">
+        <f t="shared" si="6"/>
+        <v>Jonas</v>
+      </c>
       <c r="O21" t="str">
-        <f>SUBSTITUTE(RIGHT(B21, LEN(B21) - FIND(" ", B21)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Jonas</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Benglen</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Maur</v>
       </c>
       <c r="S21">
@@ -3870,39 +3876,39 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="4">
-        <f>IF(C22&gt;=20, C22+1900, C22+2000)</f>
+        <f t="shared" si="0"/>
         <v>1982</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1903</v>
       </c>
       <c r="K22" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L22" t="str">
-        <f>LEFT(B22, FIND(" ", B22) - 1)</f>
         <v>Wenk</v>
       </c>
       <c r="M22" t="str">
-        <f>RIGHT(B22, LEN(B22) - FIND(" ", B22))</f>
-        <v>Stephan</v>
-      </c>
-      <c r="N22" t="str">
         <f t="shared" si="2"/>
         <v>Stephan</v>
       </c>
+      <c r="N22" t="str">
+        <f t="shared" si="6"/>
+        <v>Stephan</v>
+      </c>
       <c r="O22" t="str">
-        <f>SUBSTITUTE(RIGHT(B22, LEN(B22) - FIND(" ", B22)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Stephan</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bertschikon-Gossau</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S22">
@@ -3954,39 +3960,39 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="4">
-        <f>IF(C23&gt;=20, C23+1900, C23+2000)</f>
+        <f t="shared" si="0"/>
         <v>1998</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1905</v>
       </c>
       <c r="K23" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L23" t="str">
-        <f>LEFT(B23, FIND(" ", B23) - 1)</f>
         <v>Christen</v>
       </c>
       <c r="M23" t="str">
-        <f>RIGHT(B23, LEN(B23) - FIND(" ", B23))</f>
-        <v>Julien</v>
-      </c>
-      <c r="N23" t="str">
         <f t="shared" si="2"/>
         <v>Julien</v>
       </c>
+      <c r="N23" t="str">
+        <f t="shared" si="6"/>
+        <v>Julien</v>
+      </c>
       <c r="O23" t="str">
-        <f>SUBSTITUTE(RIGHT(B23, LEN(B23) - FIND(" ", B23)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Julien</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Kirchlindach</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB-Leichtathletik</v>
       </c>
       <c r="S23">
@@ -4038,39 +4044,39 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="4">
-        <f>IF(C24&gt;=20, C24+1900, C24+2000)</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1906</v>
       </c>
       <c r="K24" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L24" t="str">
-        <f>LEFT(B24, FIND(" ", B24) - 1)</f>
         <v>Besse</v>
       </c>
       <c r="M24" t="str">
-        <f>RIGHT(B24, LEN(B24) - FIND(" ", B24))</f>
-        <v>Jean-Claude</v>
-      </c>
-      <c r="N24" t="str">
         <f t="shared" si="2"/>
         <v>Jean-Claude</v>
       </c>
+      <c r="N24" t="str">
+        <f t="shared" si="6"/>
+        <v>Jean-Claude</v>
+      </c>
       <c r="O24" t="str">
-        <f>SUBSTITUTE(RIGHT(B24, LEN(B24) - FIND(" ", B24)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Jean-Claude</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Zürich</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S24">
@@ -4122,39 +4128,39 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="4">
-        <f>IF(C25&gt;=20, C25+1900, C25+2000)</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1907</v>
       </c>
       <c r="K25" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L25" t="str">
-        <f>LEFT(B25, FIND(" ", B25) - 1)</f>
         <v>Mennet</v>
       </c>
       <c r="M25" t="str">
-        <f>RIGHT(B25, LEN(B25) - FIND(" ", B25))</f>
-        <v>Robin</v>
-      </c>
-      <c r="N25" t="str">
         <f t="shared" si="2"/>
         <v>Robin</v>
       </c>
+      <c r="N25" t="str">
+        <f t="shared" si="6"/>
+        <v>Robin</v>
+      </c>
       <c r="O25" t="str">
-        <f>SUBSTITUTE(RIGHT(B25, LEN(B25) - FIND(" ", B25)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Robin</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Rheinfelden</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Basel</v>
       </c>
       <c r="S25">
@@ -4206,39 +4212,39 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="4">
-        <f>IF(C26&gt;=20, C26+1900, C26+2000)</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1907</v>
       </c>
       <c r="K26" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L26" t="str">
-        <f>LEFT(B26, FIND(" ", B26) - 1)</f>
         <v>Schönleber</v>
       </c>
       <c r="M26" t="str">
-        <f>RIGHT(B26, LEN(B26) - FIND(" ", B26))</f>
-        <v>Jannis</v>
-      </c>
-      <c r="N26" t="str">
         <f t="shared" si="2"/>
         <v>Jannis</v>
       </c>
+      <c r="N26" t="str">
+        <f t="shared" si="6"/>
+        <v>Jannis</v>
+      </c>
       <c r="O26" t="str">
-        <f>SUBSTITUTE(RIGHT(B26, LEN(B26) - FIND(" ", B26)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Jannis</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Lupsingen</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Regensdorf</v>
       </c>
       <c r="S26">
@@ -4290,39 +4296,39 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="4">
-        <f>IF(C27&gt;=20, C27+1900, C27+2000)</f>
+        <f t="shared" si="0"/>
         <v>1999</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1910</v>
       </c>
       <c r="K27" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L27" t="str">
-        <f>LEFT(B27, FIND(" ", B27) - 1)</f>
         <v>Marani</v>
       </c>
       <c r="M27" t="str">
-        <f>RIGHT(B27, LEN(B27) - FIND(" ", B27))</f>
-        <v>Tommaso</v>
-      </c>
-      <c r="N27" t="str">
         <f t="shared" si="2"/>
         <v>Tommaso</v>
       </c>
+      <c r="N27" t="str">
+        <f t="shared" si="6"/>
+        <v>Tommaso</v>
+      </c>
       <c r="O27" t="str">
-        <f>SUBSTITUTE(RIGHT(B27, LEN(B27) - FIND(" ", B27)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Tommaso</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Viganello</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SAL-Società-Atletica-Lugano</v>
       </c>
       <c r="S27">
@@ -4374,39 +4380,39 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4">
-        <f>IF(C28&gt;=20, C28+1900, C28+2000)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1911</v>
       </c>
       <c r="K28" s="5">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="L28" t="str">
-        <f>LEFT(B28, FIND(" ", B28) - 1)</f>
         <v>Huldi</v>
       </c>
       <c r="M28" t="str">
-        <f>RIGHT(B28, LEN(B28) - FIND(" ", B28))</f>
-        <v>Samuel</v>
-      </c>
-      <c r="N28" t="str">
         <f t="shared" si="2"/>
         <v>Samuel</v>
       </c>
+      <c r="N28" t="str">
+        <f t="shared" si="6"/>
+        <v>Samuel</v>
+      </c>
       <c r="O28" t="str">
-        <f>SUBSTITUTE(RIGHT(B28, LEN(B28) - FIND(" ", B28)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Samuel</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Langenthal</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LV-Langenthal</v>
       </c>
       <c r="S28">
@@ -4458,39 +4464,39 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4">
-        <f>IF(C29&gt;=20, C29+1900, C29+2000)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1914</v>
       </c>
       <c r="K29" s="5">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="L29" t="str">
-        <f>LEFT(B29, FIND(" ", B29) - 1)</f>
         <v>Freitag</v>
       </c>
       <c r="M29" t="str">
-        <f>RIGHT(B29, LEN(B29) - FIND(" ", B29))</f>
-        <v>Nino</v>
-      </c>
-      <c r="N29" t="str">
         <f t="shared" si="2"/>
         <v>Nino</v>
       </c>
+      <c r="N29" t="str">
+        <f t="shared" si="6"/>
+        <v>Nino</v>
+      </c>
       <c r="O29" t="str">
-        <f>SUBSTITUTE(RIGHT(B29, LEN(B29) - FIND(" ", B29)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Nino</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Winterthur</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LV-Winterthur</v>
       </c>
       <c r="S29">
@@ -4539,39 +4545,39 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4">
-        <f>IF(C30&gt;=20, C30+1900, C30+2000)</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1915</v>
       </c>
       <c r="K30" s="5">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="L30" t="str">
-        <f>LEFT(B30, FIND(" ", B30) - 1)</f>
         <v>Alagona</v>
       </c>
       <c r="M30" t="str">
-        <f>RIGHT(B30, LEN(B30) - FIND(" ", B30))</f>
-        <v>Andrea</v>
-      </c>
-      <c r="N30" t="str">
         <f t="shared" si="2"/>
         <v>Andrea</v>
       </c>
+      <c r="N30" t="str">
+        <f t="shared" si="6"/>
+        <v>Andrea</v>
+      </c>
       <c r="O30" t="str">
-        <f>SUBSTITUTE(RIGHT(B30, LEN(B30) - FIND(" ", B30)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Andrea</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Locarno</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S30">
@@ -4623,39 +4629,39 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4">
-        <f>IF(C31&gt;=20, C31+1900, C31+2000)</f>
+        <f t="shared" si="0"/>
         <v>1978</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1917</v>
       </c>
       <c r="K31" s="5">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="L31" t="str">
-        <f>LEFT(B31, FIND(" ", B31) - 1)</f>
         <v>Da</v>
       </c>
       <c r="M31" t="str">
-        <f>RIGHT(B31, LEN(B31) - FIND(" ", B31))</f>
+        <f t="shared" si="2"/>
         <v>Silva Miguel</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Silva-Miguel</v>
       </c>
       <c r="O31" t="str">
-        <f>SUBSTITUTE(RIGHT(B31, LEN(B31) - FIND(" ", B31)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Silva-Miguel</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Thônex</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>RCB-Collonge-Bellerive</v>
       </c>
       <c r="S31">
@@ -4707,39 +4713,39 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4">
-        <f>IF(C32&gt;=20, C32+1900, C32+2000)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1917</v>
       </c>
       <c r="K32" s="5">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="L32" t="str">
-        <f>LEFT(B32, FIND(" ", B32) - 1)</f>
         <v>Gmür</v>
       </c>
       <c r="M32" t="str">
-        <f>RIGHT(B32, LEN(B32) - FIND(" ", B32))</f>
-        <v>Chrigi</v>
-      </c>
-      <c r="N32" t="str">
         <f t="shared" si="2"/>
         <v>Chrigi</v>
       </c>
+      <c r="N32" t="str">
+        <f t="shared" si="6"/>
+        <v>Chrigi</v>
+      </c>
       <c r="O32" t="str">
-        <f>SUBSTITUTE(RIGHT(B32, LEN(B32) - FIND(" ", B32)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Chrigi</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Spiegel-b.-Bern</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Rapperswil-Jona</v>
       </c>
       <c r="S32">
@@ -4791,39 +4797,39 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4">
-        <f>IF(C33&gt;=20, C33+1900, C33+2000)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1918</v>
       </c>
       <c r="K33" s="5">
+        <f t="shared" si="5"/>
+        <v>191</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="L33" t="str">
-        <f>LEFT(B33, FIND(" ", B33) - 1)</f>
         <v>Kaufmann</v>
       </c>
       <c r="M33" t="str">
-        <f>RIGHT(B33, LEN(B33) - FIND(" ", B33))</f>
-        <v>Loris</v>
-      </c>
-      <c r="N33" t="str">
         <f t="shared" si="2"/>
         <v>Loris</v>
       </c>
+      <c r="N33" t="str">
+        <f t="shared" si="6"/>
+        <v>Loris</v>
+      </c>
       <c r="O33" t="str">
-        <f>SUBSTITUTE(RIGHT(B33, LEN(B33) - FIND(" ", B33)), " ", "-")</f>
+        <f t="shared" si="3"/>
         <v>Loris</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Dürnten</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Uster</v>
       </c>
       <c r="S33">
@@ -4875,39 +4881,39 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4">
-        <f>IF(C34&gt;=20, C34+1900, C34+2000)</f>
+        <f t="shared" ref="I34:I65" si="9">IF(C34&gt;=20, C34+1900, C34+2000)</f>
         <v>1996</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1918</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="L34" t="str">
-        <f>LEFT(B34, FIND(" ", B34) - 1)</f>
+        <f t="shared" ref="L34:L65" si="10">LEFT(B34, FIND(" ", B34) - 1)</f>
         <v>Ulrich</v>
       </c>
       <c r="M34" t="str">
-        <f>RIGHT(B34, LEN(B34) - FIND(" ", B34))</f>
+        <f t="shared" ref="M34:M65" si="11">RIGHT(B34, LEN(B34) - FIND(" ", B34))</f>
         <v>Stefan</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Stefan</v>
       </c>
       <c r="O34" t="str">
-        <f>SUBSTITUTE(RIGHT(B34, LEN(B34) - FIND(" ", B34)), " ", "-")</f>
+        <f t="shared" ref="O34:O65" si="12">SUBSTITUTE(RIGHT(B34, LEN(B34) - FIND(" ", B34)), " ", "-")</f>
         <v>Stefan</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Regensdorf</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Regensdorf</v>
       </c>
       <c r="S34">
@@ -4959,39 +4965,39 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="4">
-        <f>IF(C35&gt;=20, C35+1900, C35+2000)</f>
+        <f t="shared" si="9"/>
         <v>1999</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1919</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="L35" t="str">
-        <f>LEFT(B35, FIND(" ", B35) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Monney</v>
       </c>
       <c r="M35" t="str">
-        <f>RIGHT(B35, LEN(B35) - FIND(" ", B35))</f>
+        <f t="shared" si="11"/>
         <v>Sylvain</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Sylvain</v>
       </c>
       <c r="O35" t="str">
-        <f>SUBSTITUTE(RIGHT(B35, LEN(B35) - FIND(" ", B35)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Sylvain</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Corpataux-Magneden</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>CAG-Farvagny</v>
       </c>
       <c r="S35">
@@ -5043,39 +5049,39 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="4">
-        <f>IF(C36&gt;=20, C36+1900, C36+2000)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1919</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="L36" t="str">
-        <f>LEFT(B36, FIND(" ", B36) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Amstutz</v>
       </c>
       <c r="M36" t="str">
-        <f>RIGHT(B36, LEN(B36) - FIND(" ", B36))</f>
+        <f t="shared" si="11"/>
         <v>Timon</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Timon</v>
       </c>
       <c r="O36" t="str">
-        <f>SUBSTITUTE(RIGHT(B36, LEN(B36) - FIND(" ", B36)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Timon</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Hindelbank</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Länggasse</v>
       </c>
       <c r="S36">
@@ -5127,39 +5133,39 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4">
-        <f>IF(C37&gt;=20, C37+1900, C37+2000)</f>
+        <f t="shared" si="9"/>
         <v>2004</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1926</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="L37" t="str">
-        <f>LEFT(B37, FIND(" ", B37) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Marti</v>
       </c>
       <c r="M37" t="str">
-        <f>RIGHT(B37, LEN(B37) - FIND(" ", B37))</f>
+        <f t="shared" si="11"/>
         <v>Mickael</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Mickael</v>
       </c>
       <c r="O37" t="str">
-        <f>SUBSTITUTE(RIGHT(B37, LEN(B37) - FIND(" ", B37)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Mickael</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Sonceboz-Sombeval</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TIP-TOP-Swiss-Polysport-Macolin</v>
       </c>
       <c r="S37">
@@ -5208,39 +5214,39 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4">
-        <f>IF(C38&gt;=20, C38+1900, C38+2000)</f>
+        <f t="shared" si="9"/>
         <v>1998</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1931</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="L38" t="str">
-        <f>LEFT(B38, FIND(" ", B38) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Niederhauser</v>
       </c>
       <c r="M38" t="str">
-        <f>RIGHT(B38, LEN(B38) - FIND(" ", B38))</f>
+        <f t="shared" si="11"/>
         <v>Thibault</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Thibault</v>
       </c>
       <c r="O38" t="str">
-        <f>SUBSTITUTE(RIGHT(B38, LEN(B38) - FIND(" ", B38)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Thibault</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Château-d'Oex</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S38">
@@ -5292,39 +5298,39 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4">
-        <f>IF(C39&gt;=20, C39+1900, C39+2000)</f>
+        <f t="shared" si="9"/>
         <v>1995</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1936</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="L39" t="str">
-        <f>LEFT(B39, FIND(" ", B39) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Chalus</v>
       </c>
       <c r="M39" t="str">
-        <f>RIGHT(B39, LEN(B39) - FIND(" ", B39))</f>
+        <f t="shared" si="11"/>
         <v>François</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>François</v>
       </c>
       <c r="O39" t="str">
-        <f>SUBSTITUTE(RIGHT(B39, LEN(B39) - FIND(" ", B39)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>François</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Zürich</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S39">
@@ -5376,39 +5382,39 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4">
-        <f>IF(C40&gt;=20, C40+1900, C40+2000)</f>
+        <f t="shared" si="9"/>
         <v>1986</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1938</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="L40" t="str">
-        <f>LEFT(B40, FIND(" ", B40) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Hutterli</v>
       </c>
       <c r="M40" t="str">
-        <f>RIGHT(B40, LEN(B40) - FIND(" ", B40))</f>
+        <f t="shared" si="11"/>
         <v>Loris</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Loris</v>
       </c>
       <c r="O40" t="str">
-        <f>SUBSTITUTE(RIGHT(B40, LEN(B40) - FIND(" ", B40)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Loris</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Zürich</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>UNISPORTS-recruiting</v>
       </c>
       <c r="S40">
@@ -5460,39 +5466,39 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4">
-        <f>IF(C41&gt;=20, C41+1900, C41+2000)</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1939</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="L41" t="str">
-        <f>LEFT(B41, FIND(" ", B41) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Benz</v>
       </c>
       <c r="M41" t="str">
-        <f>RIGHT(B41, LEN(B41) - FIND(" ", B41))</f>
+        <f t="shared" si="11"/>
         <v>Fabian</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Fabian</v>
       </c>
       <c r="O41" t="str">
-        <f>SUBSTITUTE(RIGHT(B41, LEN(B41) - FIND(" ", B41)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Fabian</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Berneck</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>MILA-Rheintal</v>
       </c>
       <c r="S41">
@@ -5544,39 +5550,39 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4">
-        <f>IF(C42&gt;=20, C42+1900, C42+2000)</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1943</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>193</v>
       </c>
       <c r="L42" t="str">
-        <f>LEFT(B42, FIND(" ", B42) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Rotzetter</v>
       </c>
       <c r="M42" t="str">
-        <f>RIGHT(B42, LEN(B42) - FIND(" ", B42))</f>
+        <f t="shared" si="11"/>
         <v>Marc</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Marc</v>
       </c>
       <c r="O42" t="str">
-        <f>SUBSTITUTE(RIGHT(B42, LEN(B42) - FIND(" ", B42)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Marc</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Rechthalten</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Athletic-Team-Rechthalten</v>
       </c>
       <c r="S42">
@@ -5628,39 +5634,39 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4">
-        <f>IF(C43&gt;=20, C43+1900, C43+2000)</f>
+        <f t="shared" si="9"/>
         <v>1975</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1944</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="L43" t="str">
-        <f>LEFT(B43, FIND(" ", B43) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Jauch</v>
       </c>
       <c r="M43" t="str">
-        <f>RIGHT(B43, LEN(B43) - FIND(" ", B43))</f>
+        <f t="shared" si="11"/>
         <v>Manfred</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Manfred</v>
       </c>
       <c r="O43" t="str">
-        <f>SUBSTITUTE(RIGHT(B43, LEN(B43) - FIND(" ", B43)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Manfred</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Altdorf</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Altdorf</v>
       </c>
       <c r="S43">
@@ -5712,39 +5718,39 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="4">
-        <f>IF(C44&gt;=20, C44+1900, C44+2000)</f>
+        <f t="shared" si="9"/>
         <v>1993</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1951</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="L44" t="str">
-        <f>LEFT(B44, FIND(" ", B44) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Gossauer</v>
       </c>
       <c r="M44" t="str">
-        <f>RIGHT(B44, LEN(B44) - FIND(" ", B44))</f>
+        <f t="shared" si="11"/>
         <v>Jens-Michael</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Jens-Michael</v>
       </c>
       <c r="O44" t="str">
-        <f>SUBSTITUTE(RIGHT(B44, LEN(B44) - FIND(" ", B44)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Jens-Michael</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Jona</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Uster</v>
       </c>
       <c r="S44">
@@ -5796,39 +5802,39 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4">
-        <f>IF(C45&gt;=20, C45+1900, C45+2000)</f>
+        <f t="shared" si="9"/>
         <v>1992</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1953</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L45" t="str">
-        <f>LEFT(B45, FIND(" ", B45) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Baggenstos</v>
       </c>
       <c r="M45" t="str">
-        <f>RIGHT(B45, LEN(B45) - FIND(" ", B45))</f>
+        <f t="shared" si="11"/>
         <v>Tobias</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Tobias</v>
       </c>
       <c r="O45" t="str">
-        <f>SUBSTITUTE(RIGHT(B45, LEN(B45) - FIND(" ", B45)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Tobias</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Gersau</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Brooks-Trail-Runners</v>
       </c>
       <c r="S45">
@@ -5877,39 +5883,39 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4">
-        <f>IF(C46&gt;=20, C46+1900, C46+2000)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1954</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L46" t="str">
-        <f>LEFT(B46, FIND(" ", B46) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Josef</v>
       </c>
       <c r="M46" t="str">
-        <f>RIGHT(B46, LEN(B46) - FIND(" ", B46))</f>
+        <f t="shared" si="11"/>
         <v>Raphael</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Raphael</v>
       </c>
       <c r="O46" t="str">
-        <f>SUBSTITUTE(RIGHT(B46, LEN(B46) - FIND(" ", B46)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Raphael</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bronschhofen</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S46">
@@ -5961,39 +5967,39 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4">
-        <f>IF(C47&gt;=20, C47+1900, C47+2000)</f>
+        <f t="shared" si="9"/>
         <v>1999</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1955</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L47" t="str">
-        <f>LEFT(B47, FIND(" ", B47) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Torche</v>
       </c>
       <c r="M47" t="str">
-        <f>RIGHT(B47, LEN(B47) - FIND(" ", B47))</f>
+        <f t="shared" si="11"/>
         <v>Julien</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Julien</v>
       </c>
       <c r="O47" t="str">
-        <f>SUBSTITUTE(RIGHT(B47, LEN(B47) - FIND(" ", B47)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Julien</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Tentlingen</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>SA-Bulle</v>
       </c>
       <c r="S47">
@@ -6045,39 +6051,39 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4">
-        <f>IF(C48&gt;=20, C48+1900, C48+2000)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1956</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L48" t="str">
-        <f>LEFT(B48, FIND(" ", B48) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Pinto</v>
       </c>
       <c r="M48" t="str">
-        <f>RIGHT(B48, LEN(B48) - FIND(" ", B48))</f>
+        <f t="shared" si="11"/>
         <v>Ricardo</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Ricardo</v>
       </c>
       <c r="O48" t="str">
-        <f>SUBSTITUTE(RIGHT(B48, LEN(B48) - FIND(" ", B48)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Ricardo</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Veyrier</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Stade-Genève</v>
       </c>
       <c r="S48">
@@ -6129,39 +6135,39 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="4">
-        <f>IF(C49&gt;=20, C49+1900, C49+2000)</f>
+        <f t="shared" si="9"/>
         <v>2001</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1959</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="L49" t="str">
-        <f>LEFT(B49, FIND(" ", B49) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Gilliéron</v>
       </c>
       <c r="M49" t="str">
-        <f>RIGHT(B49, LEN(B49) - FIND(" ", B49))</f>
+        <f t="shared" si="11"/>
         <v>Clément</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Clément</v>
       </c>
       <c r="O49" t="str">
-        <f>SUBSTITUTE(RIGHT(B49, LEN(B49) - FIND(" ", B49)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Clément</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Cossonay</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Athle.ch-Club</v>
       </c>
       <c r="S49">
@@ -6213,39 +6219,39 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="4">
-        <f>IF(C50&gt;=20, C50+1900, C50+2000)</f>
+        <f t="shared" si="9"/>
         <v>1984</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1969</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="L50" t="str">
-        <f>LEFT(B50, FIND(" ", B50) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Marti</v>
       </c>
       <c r="M50" t="str">
-        <f>RIGHT(B50, LEN(B50) - FIND(" ", B50))</f>
+        <f t="shared" si="11"/>
         <v>Sven</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Sven</v>
       </c>
       <c r="O50" t="str">
-        <f>SUBSTITUTE(RIGHT(B50, LEN(B50) - FIND(" ", B50)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Sven</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Buochs</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LA-Nidwalden</v>
       </c>
       <c r="S50">
@@ -6297,39 +6303,39 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4">
-        <f>IF(C51&gt;=20, C51+1900, C51+2000)</f>
+        <f t="shared" si="9"/>
         <v>1995</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="L51" t="str">
-        <f>LEFT(B51, FIND(" ", B51) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Leugger</v>
       </c>
       <c r="M51" t="str">
-        <f>RIGHT(B51, LEN(B51) - FIND(" ", B51))</f>
+        <f t="shared" si="11"/>
         <v>Flurin</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Flurin</v>
       </c>
       <c r="O51" t="str">
-        <f>SUBSTITUTE(RIGHT(B51, LEN(B51) - FIND(" ", B51)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Flurin</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Zürich</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Basel</v>
       </c>
       <c r="S51">
@@ -6381,39 +6387,39 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4">
-        <f>IF(C52&gt;=20, C52+1900, C52+2000)</f>
+        <f t="shared" si="9"/>
         <v>2003</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1976</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="L52" t="str">
-        <f>LEFT(B52, FIND(" ", B52) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Schnider</v>
       </c>
       <c r="M52" t="str">
-        <f>RIGHT(B52, LEN(B52) - FIND(" ", B52))</f>
+        <f t="shared" si="11"/>
         <v>Lars</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Lars</v>
       </c>
       <c r="O52" t="str">
-        <f>SUBSTITUTE(RIGHT(B52, LEN(B52) - FIND(" ", B52)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Lars</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Lohn-Ammannsegg</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>STB</v>
       </c>
       <c r="S52">
@@ -6465,39 +6471,39 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4">
-        <f>IF(C53&gt;=20, C53+1900, C53+2000)</f>
+        <f t="shared" si="9"/>
         <v>2002</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1979</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="L53" t="str">
-        <f>LEFT(B53, FIND(" ", B53) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Rüttimann</v>
       </c>
       <c r="M53" t="str">
-        <f>RIGHT(B53, LEN(B53) - FIND(" ", B53))</f>
+        <f t="shared" si="11"/>
         <v>Cyrill</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cyrill</v>
       </c>
       <c r="O53" t="str">
-        <f>SUBSTITUTE(RIGHT(B53, LEN(B53) - FIND(" ", B53)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Cyrill</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Stäfa</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Uster</v>
       </c>
       <c r="S53">
@@ -6549,39 +6555,39 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="4">
-        <f>IF(C54&gt;=20, C54+1900, C54+2000)</f>
+        <f t="shared" si="9"/>
         <v>1998</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1982</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L54" t="str">
-        <f>LEFT(B54, FIND(" ", B54) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Meyer</v>
       </c>
       <c r="M54" t="str">
-        <f>RIGHT(B54, LEN(B54) - FIND(" ", B54))</f>
+        <f t="shared" si="11"/>
         <v>Cedric</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Cedric</v>
       </c>
       <c r="O54" t="str">
-        <f>SUBSTITUTE(RIGHT(B54, LEN(B54) - FIND(" ", B54)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Cedric</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Galgenen</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TSV-Galgenen</v>
       </c>
       <c r="S54">
@@ -6633,39 +6639,39 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="4">
-        <f>IF(C55&gt;=20, C55+1900, C55+2000)</f>
+        <f t="shared" si="9"/>
         <v>2004</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1982</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>197</v>
       </c>
       <c r="L55" t="str">
-        <f>LEFT(B55, FIND(" ", B55) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Knaus</v>
       </c>
       <c r="M55" t="str">
-        <f>RIGHT(B55, LEN(B55) - FIND(" ", B55))</f>
+        <f t="shared" si="11"/>
         <v>David</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>David</v>
       </c>
       <c r="O55" t="str">
-        <f>SUBSTITUTE(RIGHT(B55, LEN(B55) - FIND(" ", B55)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>David</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Winterthur</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LV-Winterthur</v>
       </c>
       <c r="S55">
@@ -6717,39 +6723,39 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="4">
-        <f>IF(C56&gt;=20, C56+1900, C56+2000)</f>
+        <f t="shared" si="9"/>
         <v>1998</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1983</v>
       </c>
       <c r="K56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L56" t="str">
-        <f>LEFT(B56, FIND(" ", B56) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Mayer</v>
       </c>
       <c r="M56" t="str">
-        <f>RIGHT(B56, LEN(B56) - FIND(" ", B56))</f>
+        <f t="shared" si="11"/>
         <v>Rey Despenzia Samuel</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Rey-Despenzia-Samuel</v>
       </c>
       <c r="O56" t="str">
-        <f>SUBSTITUTE(RIGHT(B56, LEN(B56) - FIND(" ", B56)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Rey-Despenzia-Samuel</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Birmenstorf</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Uster</v>
       </c>
       <c r="S56">
@@ -6801,39 +6807,39 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="4">
-        <f>IF(C57&gt;=20, C57+1900, C57+2000)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1985</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L57" t="str">
-        <f>LEFT(B57, FIND(" ", B57) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Arnold</v>
       </c>
       <c r="M57" t="str">
-        <f>RIGHT(B57, LEN(B57) - FIND(" ", B57))</f>
+        <f t="shared" si="11"/>
         <v>Philipp</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Philipp</v>
       </c>
       <c r="O57" t="str">
-        <f>SUBSTITUTE(RIGHT(B57, LEN(B57) - FIND(" ", B57)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Philipp</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Cham</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Zürich</v>
       </c>
       <c r="S57">
@@ -6885,39 +6891,39 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="4">
-        <f>IF(C58&gt;=20, C58+1900, C58+2000)</f>
+        <f t="shared" si="9"/>
         <v>1979</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1989</v>
       </c>
       <c r="K58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L58" t="str">
-        <f>LEFT(B58, FIND(" ", B58) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Castiglioni</v>
       </c>
       <c r="M58" t="str">
-        <f>RIGHT(B58, LEN(B58) - FIND(" ", B58))</f>
+        <f t="shared" si="11"/>
         <v>Luca</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Luca</v>
       </c>
       <c r="O58" t="str">
-        <f>SUBSTITUTE(RIGHT(B58, LEN(B58) - FIND(" ", B58)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Luca</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Thalwil</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S58">
@@ -6969,39 +6975,39 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="4">
-        <f>IF(C59&gt;=20, C59+1900, C59+2000)</f>
+        <f t="shared" si="9"/>
         <v>1992</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1993</v>
       </c>
       <c r="K59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L59" t="str">
-        <f>LEFT(B59, FIND(" ", B59) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Kostyuchenko</v>
       </c>
       <c r="M59" t="str">
-        <f>RIGHT(B59, LEN(B59) - FIND(" ", B59))</f>
+        <f t="shared" si="11"/>
         <v>Nikita</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Nikita</v>
       </c>
       <c r="O59" t="str">
-        <f>SUBSTITUTE(RIGHT(B59, LEN(B59) - FIND(" ", B59)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Nikita</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Lufingen</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Zürich</v>
       </c>
       <c r="S59">
@@ -7053,39 +7059,39 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="4">
-        <f>IF(C60&gt;=20, C60+1900, C60+2000)</f>
+        <f t="shared" si="9"/>
         <v>2001</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1993</v>
       </c>
       <c r="K60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="L60" t="str">
-        <f>LEFT(B60, FIND(" ", B60) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Stuker</v>
       </c>
       <c r="M60" t="str">
-        <f>RIGHT(B60, LEN(B60) - FIND(" ", B60))</f>
+        <f t="shared" si="11"/>
         <v>Leo</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Leo</v>
       </c>
       <c r="O60" t="str">
-        <f>SUBSTITUTE(RIGHT(B60, LEN(B60) - FIND(" ", B60)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Leo</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Bern</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Länggasse</v>
       </c>
       <c r="S60">
@@ -7137,39 +7143,39 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="4">
-        <f>IF(C61&gt;=20, C61+1900, C61+2000)</f>
+        <f t="shared" si="9"/>
         <v>1995</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1997</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="L61" t="str">
-        <f>LEFT(B61, FIND(" ", B61) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Werder</v>
       </c>
       <c r="M61" t="str">
-        <f>RIGHT(B61, LEN(B61) - FIND(" ", B61))</f>
+        <f t="shared" si="11"/>
         <v>Dario</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Dario</v>
       </c>
       <c r="O61" t="str">
-        <f>SUBSTITUTE(RIGHT(B61, LEN(B61) - FIND(" ", B61)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Dario</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Frauenfeld</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Frauenfeld</v>
       </c>
       <c r="S61">
@@ -7221,39 +7227,39 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="4">
-        <f>IF(C62&gt;=20, C62+1900, C62+2000)</f>
+        <f t="shared" si="9"/>
         <v>1995</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="L62" t="str">
-        <f>LEFT(B62, FIND(" ", B62) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Ott</v>
       </c>
       <c r="M62" t="str">
-        <f>RIGHT(B62, LEN(B62) - FIND(" ", B62))</f>
+        <f t="shared" si="11"/>
         <v>Marcel</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Marcel</v>
       </c>
       <c r="O62" t="str">
-        <f>SUBSTITUTE(RIGHT(B62, LEN(B62) - FIND(" ", B62)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Marcel</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Wallisellen</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S62">
@@ -7305,39 +7311,39 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="4">
-        <f>IF(C63&gt;=20, C63+1900, C63+2000)</f>
+        <f t="shared" si="9"/>
         <v>2003</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="K63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="L63" t="str">
-        <f>LEFT(B63, FIND(" ", B63) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Gerber</v>
       </c>
       <c r="M63" t="str">
-        <f>RIGHT(B63, LEN(B63) - FIND(" ", B63))</f>
+        <f t="shared" si="11"/>
         <v>Tobias</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Tobias</v>
       </c>
       <c r="O63" t="str">
-        <f>SUBSTITUTE(RIGHT(B63, LEN(B63) - FIND(" ", B63)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Tobias</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>St.-Gallen</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>LC-Brühl-Leichtathletik</v>
       </c>
       <c r="S63">
@@ -7389,39 +7395,39 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="4">
-        <f>IF(C64&gt;=20, C64+1900, C64+2000)</f>
+        <f t="shared" si="9"/>
         <v>1996</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2001</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="L64" t="str">
-        <f>LEFT(B64, FIND(" ", B64) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Renner</v>
       </c>
       <c r="M64" t="str">
-        <f>RIGHT(B64, LEN(B64) - FIND(" ", B64))</f>
+        <f t="shared" si="11"/>
         <v>Philipp</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Philipp</v>
       </c>
       <c r="O64" t="str">
-        <f>SUBSTITUTE(RIGHT(B64, LEN(B64) - FIND(" ", B64)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Philipp</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Meierskappel</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>TSV-2001-Rotkreuz</v>
       </c>
       <c r="S64">
@@ -7470,39 +7476,39 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4">
-        <f>IF(C65&gt;=20, C65+1900, C65+2000)</f>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="K65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="L65" t="str">
-        <f>LEFT(B65, FIND(" ", B65) - 1)</f>
+        <f t="shared" si="10"/>
         <v>Maret</v>
       </c>
       <c r="M65" t="str">
-        <f>RIGHT(B65, LEN(B65) - FIND(" ", B65))</f>
+        <f t="shared" si="11"/>
         <v>Clément</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Clément</v>
       </c>
       <c r="O65" t="str">
-        <f>SUBSTITUTE(RIGHT(B65, LEN(B65) - FIND(" ", B65)), " ", "-")</f>
+        <f t="shared" si="12"/>
         <v>Clément</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Fully</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S65">
@@ -7554,39 +7560,39 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4">
-        <f>IF(C66&gt;=20, C66+1900, C66+2000)</f>
+        <f t="shared" ref="I66:I101" si="13">IF(C66&gt;=20, C66+1900, C66+2000)</f>
         <v>2004</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="L66" t="str">
-        <f>LEFT(B66, FIND(" ", B66) - 1)</f>
+        <f t="shared" ref="L66:L101" si="14">LEFT(B66, FIND(" ", B66) - 1)</f>
         <v>Maurer</v>
       </c>
       <c r="M66" t="str">
-        <f>RIGHT(B66, LEN(B66) - FIND(" ", B66))</f>
+        <f t="shared" ref="M66:M101" si="15">RIGHT(B66, LEN(B66) - FIND(" ", B66))</f>
         <v>Paul</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Paul</v>
       </c>
       <c r="O66" t="str">
-        <f>SUBSTITUTE(RIGHT(B66, LEN(B66) - FIND(" ", B66)), " ", "-")</f>
+        <f t="shared" ref="O66:O101" si="16">SUBSTITUTE(RIGHT(B66, LEN(B66) - FIND(" ", B66)), " ", "-")</f>
         <v>Paul</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Genève</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>AVG</v>
       </c>
       <c r="S66">
@@ -7638,39 +7644,39 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4">
-        <f>IF(C67&gt;=20, C67+1900, C67+2000)</f>
+        <f t="shared" si="13"/>
         <v>1976</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" ref="J67:J101" si="5">(HOUR(F67)+24)*60 + MINUTE(F67)</f>
+        <f t="shared" ref="J67:J101" si="17">(HOUR(F67)+24)*60 + MINUTE(F67)</f>
         <v>2009</v>
       </c>
       <c r="K67" s="5">
-        <f t="shared" ref="K67:K101" si="6">HOUR(G67)*60 + MINUTE(G67)</f>
+        <f t="shared" ref="K67:K101" si="18">HOUR(G67)*60 + MINUTE(G67)</f>
         <v>200</v>
       </c>
       <c r="L67" t="str">
-        <f>LEFT(B67, FIND(" ", B67) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Oliver</v>
       </c>
       <c r="M67" t="str">
-        <f>RIGHT(B67, LEN(B67) - FIND(" ", B67))</f>
+        <f t="shared" si="15"/>
         <v>Rubén</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N101" si="7">SUBSTITUTE(M67, " ", "-")</f>
+        <f t="shared" ref="N67:N101" si="19">SUBSTITUTE(M67, " ", "-")</f>
         <v>Rubén</v>
       </c>
       <c r="O67" t="str">
-        <f>SUBSTITUTE(RIGHT(B67, LEN(B67) - FIND(" ", B67)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Rubén</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P101" si="8">SUBSTITUTE(D67, " ", "-")</f>
+        <f t="shared" ref="P67:P101" si="20">SUBSTITUTE(D67, " ", "-")</f>
         <v>Jona</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q101" si="9">SUBSTITUTE(E67, " ", "-")</f>
+        <f t="shared" ref="Q67:Q101" si="21">SUBSTITUTE(E67, " ", "-")</f>
         <v>TV-Oerlikon</v>
       </c>
       <c r="S67">
@@ -7722,39 +7728,39 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4">
-        <f>IF(C68&gt;=20, C68+1900, C68+2000)</f>
+        <f t="shared" si="13"/>
         <v>1999</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2010</v>
       </c>
       <c r="K68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="L68" t="str">
-        <f>LEFT(B68, FIND(" ", B68) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Schönbächler</v>
       </c>
       <c r="M68" t="str">
-        <f>RIGHT(B68, LEN(B68) - FIND(" ", B68))</f>
+        <f t="shared" si="15"/>
         <v>Emanuel</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Emanuel</v>
       </c>
       <c r="O68" t="str">
-        <f>SUBSTITUTE(RIGHT(B68, LEN(B68) - FIND(" ", B68)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Emanuel</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Küssnacht</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>STV-Küssnacht</v>
       </c>
       <c r="S68">
@@ -7806,39 +7812,39 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4">
-        <f>IF(C69&gt;=20, C69+1900, C69+2000)</f>
+        <f t="shared" si="13"/>
         <v>1987</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2010</v>
       </c>
       <c r="K69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="L69" t="str">
-        <f>LEFT(B69, FIND(" ", B69) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Schönenberger</v>
       </c>
       <c r="M69" t="str">
-        <f>RIGHT(B69, LEN(B69) - FIND(" ", B69))</f>
+        <f t="shared" si="15"/>
         <v>Simon</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Simon</v>
       </c>
       <c r="O69" t="str">
-        <f>SUBSTITUTE(RIGHT(B69, LEN(B69) - FIND(" ", B69)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Simon</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>St.-Gallen</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Brühl-Leichtathletik</v>
       </c>
       <c r="S69">
@@ -7887,39 +7893,39 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4">
-        <f>IF(C70&gt;=20, C70+1900, C70+2000)</f>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2011</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="L70" t="str">
-        <f>LEFT(B70, FIND(" ", B70) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Marquart</v>
       </c>
       <c r="M70" t="str">
-        <f>RIGHT(B70, LEN(B70) - FIND(" ", B70))</f>
+        <f t="shared" si="15"/>
         <v>Artho</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Artho</v>
       </c>
       <c r="O70" t="str">
-        <f>SUBSTITUTE(RIGHT(B70, LEN(B70) - FIND(" ", B70)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Artho</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Aathal-Seegräben</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S70">
@@ -7971,39 +7977,39 @@
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="4">
-        <f>IF(C71&gt;=20, C71+1900, C71+2000)</f>
+        <f t="shared" si="13"/>
         <v>2004</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2011</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="L71" t="str">
-        <f>LEFT(B71, FIND(" ", B71) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Wolfensberger</v>
       </c>
       <c r="M71" t="str">
-        <f>RIGHT(B71, LEN(B71) - FIND(" ", B71))</f>
+        <f t="shared" si="15"/>
         <v>Simon</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Simon</v>
       </c>
       <c r="O71" t="str">
-        <f>SUBSTITUTE(RIGHT(B71, LEN(B71) - FIND(" ", B71)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Simon</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Winterthur</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LV-Winterthur</v>
       </c>
       <c r="S71">
@@ -8055,39 +8061,39 @@
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="4">
-        <f>IF(C72&gt;=20, C72+1900, C72+2000)</f>
+        <f t="shared" si="13"/>
         <v>1994</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2013</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>201</v>
       </c>
       <c r="L72" t="str">
-        <f>LEFT(B72, FIND(" ", B72) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Morgenthaler</v>
       </c>
       <c r="M72" t="str">
-        <f>RIGHT(B72, LEN(B72) - FIND(" ", B72))</f>
+        <f t="shared" si="15"/>
         <v>Joël</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Joël</v>
       </c>
       <c r="O72" t="str">
-        <f>SUBSTITUTE(RIGHT(B72, LEN(B72) - FIND(" ", B72)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Joël</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Waltenschwil</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Regensdorf</v>
       </c>
       <c r="S72">
@@ -8139,39 +8145,39 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="4">
-        <f>IF(C73&gt;=20, C73+1900, C73+2000)</f>
+        <f t="shared" si="13"/>
         <v>2002</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2018</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>201</v>
       </c>
       <c r="L73" t="str">
-        <f>LEFT(B73, FIND(" ", B73) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Parfuss</v>
       </c>
       <c r="M73" t="str">
-        <f>RIGHT(B73, LEN(B73) - FIND(" ", B73))</f>
+        <f t="shared" si="15"/>
         <v>Florin</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Florin</v>
       </c>
       <c r="O73" t="str">
-        <f>SUBSTITUTE(RIGHT(B73, LEN(B73) - FIND(" ", B73)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Florin</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>St.-Gallen</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Brühl-Leichtathletik</v>
       </c>
       <c r="S73">
@@ -8220,39 +8226,39 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="4">
-        <f>IF(C74&gt;=20, C74+1900, C74+2000)</f>
+        <f t="shared" si="13"/>
         <v>1977</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2020</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>201</v>
       </c>
       <c r="L74" t="str">
-        <f>LEFT(B74, FIND(" ", B74) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Wiederkehr</v>
       </c>
       <c r="M74" t="str">
-        <f>RIGHT(B74, LEN(B74) - FIND(" ", B74))</f>
+        <f t="shared" si="15"/>
         <v>Fabian</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Fabian</v>
       </c>
       <c r="O74" t="str">
-        <f>SUBSTITUTE(RIGHT(B74, LEN(B74) - FIND(" ", B74)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Fabian</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Wil-SG</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S74">
@@ -8304,39 +8310,39 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4">
-        <f>IF(C75&gt;=20, C75+1900, C75+2000)</f>
+        <f t="shared" si="13"/>
         <v>2008</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2021</v>
       </c>
       <c r="K75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>201</v>
       </c>
       <c r="L75" t="str">
-        <f>LEFT(B75, FIND(" ", B75) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Popea</v>
       </c>
       <c r="M75" t="str">
-        <f>RIGHT(B75, LEN(B75) - FIND(" ", B75))</f>
+        <f t="shared" si="15"/>
         <v>Théotime</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Théotime</v>
       </c>
       <c r="O75" t="str">
-        <f>SUBSTITUTE(RIGHT(B75, LEN(B75) - FIND(" ", B75)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Théotime</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Lutry</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>AthleTEAM-Lutry-/-Cris-Run</v>
       </c>
       <c r="S75">
@@ -8388,39 +8394,39 @@
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4">
-        <f>IF(C76&gt;=20, C76+1900, C76+2000)</f>
+        <f t="shared" si="13"/>
         <v>1977</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2023</v>
       </c>
       <c r="K76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
       <c r="L76" t="str">
-        <f>LEFT(B76, FIND(" ", B76) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Lagerström</v>
       </c>
       <c r="M76" t="str">
-        <f>RIGHT(B76, LEN(B76) - FIND(" ", B76))</f>
+        <f t="shared" si="15"/>
         <v>Mark</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Mark</v>
       </c>
       <c r="O76" t="str">
-        <f>SUBSTITUTE(RIGHT(B76, LEN(B76) - FIND(" ", B76)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Mark</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Dübendorf</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>SV-WIEDIKON</v>
       </c>
       <c r="S76">
@@ -8472,39 +8478,39 @@
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="4">
-        <f>IF(C77&gt;=20, C77+1900, C77+2000)</f>
+        <f t="shared" si="13"/>
         <v>2002</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2026</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
       <c r="L77" t="str">
-        <f>LEFT(B77, FIND(" ", B77) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Schober</v>
       </c>
       <c r="M77" t="str">
-        <f>RIGHT(B77, LEN(B77) - FIND(" ", B77))</f>
+        <f t="shared" si="15"/>
         <v>Rafael</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Rafael</v>
       </c>
       <c r="O77" t="str">
-        <f>SUBSTITUTE(RIGHT(B77, LEN(B77) - FIND(" ", B77)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Rafael</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Bützberg</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LV-Langenthal-/-LTC</v>
       </c>
       <c r="S77">
@@ -8556,39 +8562,39 @@
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="4">
-        <f>IF(C78&gt;=20, C78+1900, C78+2000)</f>
+        <f t="shared" si="13"/>
         <v>1973</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2027</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>202</v>
       </c>
       <c r="L78" t="str">
-        <f>LEFT(B78, FIND(" ", B78) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Fischer</v>
       </c>
       <c r="M78" t="str">
-        <f>RIGHT(B78, LEN(B78) - FIND(" ", B78))</f>
+        <f t="shared" si="15"/>
         <v>Christian</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Christian</v>
       </c>
       <c r="O78" t="str">
-        <f>SUBSTITUTE(RIGHT(B78, LEN(B78) - FIND(" ", B78)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Christian</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Aarberg</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LCA-Bärn</v>
       </c>
       <c r="S78">
@@ -8640,39 +8646,39 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="4">
-        <f>IF(C79&gt;=20, C79+1900, C79+2000)</f>
+        <f t="shared" si="13"/>
         <v>1991</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2033</v>
       </c>
       <c r="K79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L79" t="str">
-        <f>LEFT(B79, FIND(" ", B79) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Marquetant</v>
       </c>
       <c r="M79" t="str">
-        <f>RIGHT(B79, LEN(B79) - FIND(" ", B79))</f>
+        <f t="shared" si="15"/>
         <v>Timo</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Timo</v>
       </c>
       <c r="O79" t="str">
-        <f>SUBSTITUTE(RIGHT(B79, LEN(B79) - FIND(" ", B79)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Timo</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Beringen</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Schaffhausen</v>
       </c>
       <c r="S79">
@@ -8724,39 +8730,39 @@
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="4">
-        <f>IF(C80&gt;=20, C80+1900, C80+2000)</f>
+        <f t="shared" si="13"/>
         <v>1999</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2033</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L80" t="str">
-        <f>LEFT(B80, FIND(" ", B80) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Leneuf</v>
       </c>
       <c r="M80" t="str">
-        <f>RIGHT(B80, LEN(B80) - FIND(" ", B80))</f>
+        <f t="shared" si="15"/>
         <v>Louis</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Louis</v>
       </c>
       <c r="O80" t="str">
-        <f>SUBSTITUTE(RIGHT(B80, LEN(B80) - FIND(" ", B80)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Louis</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Blonay</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>Athle.ch-Club</v>
       </c>
       <c r="S80">
@@ -8808,39 +8814,39 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="4">
-        <f>IF(C81&gt;=20, C81+1900, C81+2000)</f>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2037</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L81" t="str">
-        <f>LEFT(B81, FIND(" ", B81) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Schneeberger</v>
       </c>
       <c r="M81" t="str">
-        <f>RIGHT(B81, LEN(B81) - FIND(" ", B81))</f>
+        <f t="shared" si="15"/>
         <v>Manuel</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Manuel</v>
       </c>
       <c r="O81" t="str">
-        <f>SUBSTITUTE(RIGHT(B81, LEN(B81) - FIND(" ", B81)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Manuel</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Langenthal</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LV-Langenthal</v>
       </c>
       <c r="S81">
@@ -8892,39 +8898,39 @@
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="4">
-        <f>IF(C82&gt;=20, C82+1900, C82+2000)</f>
+        <f t="shared" si="13"/>
         <v>1994</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2040</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L82" t="str">
-        <f>LEFT(B82, FIND(" ", B82) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Pedrazzoli</v>
       </c>
       <c r="M82" t="str">
-        <f>RIGHT(B82, LEN(B82) - FIND(" ", B82))</f>
+        <f t="shared" si="15"/>
         <v>Thomas</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Thomas</v>
       </c>
       <c r="O82" t="str">
-        <f>SUBSTITUTE(RIGHT(B82, LEN(B82) - FIND(" ", B82)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Thomas</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Petit-Lancy</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>Stade-Genève</v>
       </c>
       <c r="S82">
@@ -8976,39 +8982,39 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="4">
-        <f>IF(C83&gt;=20, C83+1900, C83+2000)</f>
+        <f t="shared" si="13"/>
         <v>1998</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2041</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L83" t="str">
-        <f>LEFT(B83, FIND(" ", B83) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Wisler</v>
       </c>
       <c r="M83" t="str">
-        <f>RIGHT(B83, LEN(B83) - FIND(" ", B83))</f>
+        <f t="shared" si="15"/>
         <v>Thomas</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Thomas</v>
       </c>
       <c r="O83" t="str">
-        <f>SUBSTITUTE(RIGHT(B83, LEN(B83) - FIND(" ", B83)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Thomas</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Morges</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>Stade-Genève</v>
       </c>
       <c r="S83">
@@ -9060,39 +9066,39 @@
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="4">
-        <f>IF(C84&gt;=20, C84+1900, C84+2000)</f>
+        <f t="shared" si="13"/>
         <v>2005</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2041</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>204</v>
       </c>
       <c r="L84" t="str">
-        <f>LEFT(B84, FIND(" ", B84) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Kaufmann</v>
       </c>
       <c r="M84" t="str">
-        <f>RIGHT(B84, LEN(B84) - FIND(" ", B84))</f>
+        <f t="shared" si="15"/>
         <v>Cyrill</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Cyrill</v>
       </c>
       <c r="O84" t="str">
-        <f>SUBSTITUTE(RIGHT(B84, LEN(B84) - FIND(" ", B84)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Cyrill</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Obfelden</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LV-Albis</v>
       </c>
       <c r="S84">
@@ -9141,39 +9147,39 @@
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="4">
-        <f>IF(C85&gt;=20, C85+1900, C85+2000)</f>
+        <f t="shared" si="13"/>
         <v>1981</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2043</v>
       </c>
       <c r="K85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>203</v>
       </c>
       <c r="L85" t="str">
-        <f>LEFT(B85, FIND(" ", B85) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Bischofberger</v>
       </c>
       <c r="M85" t="str">
-        <f>RIGHT(B85, LEN(B85) - FIND(" ", B85))</f>
+        <f t="shared" si="15"/>
         <v>Emil</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Emil</v>
       </c>
       <c r="O85" t="str">
-        <f>SUBSTITUTE(RIGHT(B85, LEN(B85) - FIND(" ", B85)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Emil</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Horgen</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S85">
@@ -9225,39 +9231,39 @@
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="4">
-        <f>IF(C86&gt;=20, C86+1900, C86+2000)</f>
+        <f t="shared" si="13"/>
         <v>1998</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2047</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>204</v>
       </c>
       <c r="L86" t="str">
-        <f>LEFT(B86, FIND(" ", B86) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Bruderer</v>
       </c>
       <c r="M86" t="str">
-        <f>RIGHT(B86, LEN(B86) - FIND(" ", B86))</f>
+        <f t="shared" si="15"/>
         <v>Silas</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Silas</v>
       </c>
       <c r="O86" t="str">
-        <f>SUBSTITUTE(RIGHT(B86, LEN(B86) - FIND(" ", B86)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Silas</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Egnach</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LAR-Bischofszell</v>
       </c>
       <c r="S86">
@@ -9306,39 +9312,39 @@
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="4">
-        <f>IF(C87&gt;=20, C87+1900, C87+2000)</f>
+        <f t="shared" si="13"/>
         <v>1989</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2053</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>205</v>
       </c>
       <c r="L87" t="str">
-        <f>LEFT(B87, FIND(" ", B87) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Schmidhalter</v>
       </c>
       <c r="M87" t="str">
-        <f>RIGHT(B87, LEN(B87) - FIND(" ", B87))</f>
+        <f t="shared" si="15"/>
         <v>Joël</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Joël</v>
       </c>
       <c r="O87" t="str">
-        <f>SUBSTITUTE(RIGHT(B87, LEN(B87) - FIND(" ", B87)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Joël</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Glis</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S87">
@@ -9390,39 +9396,39 @@
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="4">
-        <f>IF(C88&gt;=20, C88+1900, C88+2000)</f>
+        <f t="shared" si="13"/>
         <v>1999</v>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2056</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>205</v>
       </c>
       <c r="L88" t="str">
-        <f>LEFT(B88, FIND(" ", B88) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Ummel</v>
       </c>
       <c r="M88" t="str">
-        <f>RIGHT(B88, LEN(B88) - FIND(" ", B88))</f>
+        <f t="shared" si="15"/>
         <v>Dominik</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Dominik</v>
       </c>
       <c r="O88" t="str">
-        <f>SUBSTITUTE(RIGHT(B88, LEN(B88) - FIND(" ", B88)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Dominik</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Biglen</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Luzern</v>
       </c>
       <c r="S88">
@@ -9474,39 +9480,39 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="4">
-        <f>IF(C89&gt;=20, C89+1900, C89+2000)</f>
+        <f t="shared" si="13"/>
         <v>1971</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2057</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>205</v>
       </c>
       <c r="L89" t="str">
-        <f>LEFT(B89, FIND(" ", B89) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Leibundgut</v>
       </c>
       <c r="M89" t="str">
-        <f>RIGHT(B89, LEN(B89) - FIND(" ", B89))</f>
+        <f t="shared" si="15"/>
         <v>Armin</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Armin</v>
       </c>
       <c r="O89" t="str">
-        <f>SUBSTITUTE(RIGHT(B89, LEN(B89) - FIND(" ", B89)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Armin</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Melchnau</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>TV-Länggasse</v>
       </c>
       <c r="S89">
@@ -9558,39 +9564,39 @@
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="4">
-        <f>IF(C90&gt;=20, C90+1900, C90+2000)</f>
+        <f t="shared" si="13"/>
         <v>2003</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2071</v>
       </c>
       <c r="K90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>206</v>
       </c>
       <c r="L90" t="str">
-        <f>LEFT(B90, FIND(" ", B90) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Freund</v>
       </c>
       <c r="M90" t="str">
-        <f>RIGHT(B90, LEN(B90) - FIND(" ", B90))</f>
+        <f t="shared" si="15"/>
         <v>Jonas</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Jonas</v>
       </c>
       <c r="O90" t="str">
-        <f>SUBSTITUTE(RIGHT(B90, LEN(B90) - FIND(" ", B90)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Jonas</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Vilters</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>TG-Ost</v>
       </c>
       <c r="S90">
@@ -9642,39 +9648,39 @@
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="4">
-        <f>IF(C91&gt;=20, C91+1900, C91+2000)</f>
+        <f t="shared" si="13"/>
         <v>1975</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2073</v>
       </c>
       <c r="K91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>206</v>
       </c>
       <c r="L91" t="str">
-        <f>LEFT(B91, FIND(" ", B91) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Bohren</v>
       </c>
       <c r="M91" t="str">
-        <f>RIGHT(B91, LEN(B91) - FIND(" ", B91))</f>
+        <f t="shared" si="15"/>
         <v>Yves</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Yves</v>
       </c>
       <c r="O91" t="str">
-        <f>SUBSTITUTE(RIGHT(B91, LEN(B91) - FIND(" ", B91)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Yves</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Kleinandelfingen</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LAC-TV-Unterstrass-/-Medbase-Runner</v>
       </c>
       <c r="S91">
@@ -9726,39 +9732,39 @@
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="4">
-        <f>IF(C92&gt;=20, C92+1900, C92+2000)</f>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2074</v>
       </c>
       <c r="K92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>206</v>
       </c>
       <c r="L92" t="str">
-        <f>LEFT(B92, FIND(" ", B92) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Länzlinger</v>
       </c>
       <c r="M92" t="str">
-        <f>RIGHT(B92, LEN(B92) - FIND(" ", B92))</f>
+        <f t="shared" si="15"/>
         <v>Lorin</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Lorin</v>
       </c>
       <c r="O92" t="str">
-        <f>SUBSTITUTE(RIGHT(B92, LEN(B92) - FIND(" ", B92)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Lorin</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Mosnang</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LR-Mosnang</v>
       </c>
       <c r="S92">
@@ -9810,39 +9816,39 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="4">
-        <f>IF(C93&gt;=20, C93+1900, C93+2000)</f>
+        <f t="shared" si="13"/>
         <v>1979</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2074</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>207</v>
       </c>
       <c r="L93" t="str">
-        <f>LEFT(B93, FIND(" ", B93) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Marty</v>
       </c>
       <c r="M93" t="str">
-        <f>RIGHT(B93, LEN(B93) - FIND(" ", B93))</f>
+        <f t="shared" si="15"/>
         <v>Stefan</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Stefan</v>
       </c>
       <c r="O93" t="str">
-        <f>SUBSTITUTE(RIGHT(B93, LEN(B93) - FIND(" ", B93)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Stefan</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Steinen</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>smrun-/-crespo.ch-/-erox</v>
       </c>
       <c r="S93">
@@ -9894,39 +9900,39 @@
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="4">
-        <f>IF(C94&gt;=20, C94+1900, C94+2000)</f>
+        <f t="shared" si="13"/>
         <v>2001</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2078</v>
       </c>
       <c r="K94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>207</v>
       </c>
       <c r="L94" t="str">
-        <f>LEFT(B94, FIND(" ", B94) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Aase</v>
       </c>
       <c r="M94" t="str">
-        <f>RIGHT(B94, LEN(B94) - FIND(" ", B94))</f>
+        <f t="shared" si="15"/>
         <v>Njaal</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Njaal</v>
       </c>
       <c r="O94" t="str">
-        <f>SUBSTITUTE(RIGHT(B94, LEN(B94) - FIND(" ", B94)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Njaal</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Hüntwangen</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Rafzerfeld</v>
       </c>
       <c r="S94">
@@ -9978,39 +9984,39 @@
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="4">
-        <f>IF(C95&gt;=20, C95+1900, C95+2000)</f>
+        <f t="shared" si="13"/>
         <v>1991</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2082</v>
       </c>
       <c r="K95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>207</v>
       </c>
       <c r="L95" t="str">
-        <f>LEFT(B95, FIND(" ", B95) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Alcala</v>
       </c>
       <c r="M95" t="str">
-        <f>RIGHT(B95, LEN(B95) - FIND(" ", B95))</f>
+        <f t="shared" si="15"/>
         <v>Adrià</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Adrià</v>
       </c>
       <c r="O95" t="str">
-        <f>SUBSTITUTE(RIGHT(B95, LEN(B95) - FIND(" ", B95)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Adrià</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Langenthal</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LV-Langenthal</v>
       </c>
       <c r="S95">
@@ -10059,39 +10065,39 @@
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="4">
-        <f>IF(C96&gt;=20, C96+1900, C96+2000)</f>
+        <f t="shared" si="13"/>
         <v>1979</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2086</v>
       </c>
       <c r="K96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
       <c r="L96" t="str">
-        <f>LEFT(B96, FIND(" ", B96) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Aeschlimann</v>
       </c>
       <c r="M96" t="str">
-        <f>RIGHT(B96, LEN(B96) - FIND(" ", B96))</f>
+        <f t="shared" si="15"/>
         <v>Gilles</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Gilles</v>
       </c>
       <c r="O96" t="str">
-        <f>SUBSTITUTE(RIGHT(B96, LEN(B96) - FIND(" ", B96)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Gilles</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Le-Locle</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S96">
@@ -10143,39 +10149,39 @@
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="4">
-        <f>IF(C97&gt;=20, C97+1900, C97+2000)</f>
+        <f t="shared" si="13"/>
         <v>1997</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2087</v>
       </c>
       <c r="K97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
       <c r="L97" t="str">
-        <f>LEFT(B97, FIND(" ", B97) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Blättler</v>
       </c>
       <c r="M97" t="str">
-        <f>RIGHT(B97, LEN(B97) - FIND(" ", B97))</f>
+        <f t="shared" si="15"/>
         <v>Remo</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Remo</v>
       </c>
       <c r="O97" t="str">
-        <f>SUBSTITUTE(RIGHT(B97, LEN(B97) - FIND(" ", B97)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Remo</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Stans</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LA-Nidwalden</v>
       </c>
       <c r="S97">
@@ -10227,39 +10233,39 @@
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="4">
-        <f>IF(C98&gt;=20, C98+1900, C98+2000)</f>
+        <f t="shared" si="13"/>
         <v>1982</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2088</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>208</v>
       </c>
       <c r="L98" t="str">
-        <f>LEFT(B98, FIND(" ", B98) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Albuquerque</v>
       </c>
       <c r="M98" t="str">
-        <f>RIGHT(B98, LEN(B98) - FIND(" ", B98))</f>
+        <f t="shared" si="15"/>
         <v>Bruno</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Bruno</v>
       </c>
       <c r="O98" t="str">
-        <f>SUBSTITUTE(RIGHT(B98, LEN(B98) - FIND(" ", B98)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Bruno</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Epautheyres</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>USY-/-Trilogie-Sport</v>
       </c>
       <c r="S98">
@@ -10311,39 +10317,39 @@
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="4">
-        <f>IF(C99&gt;=20, C99+1900, C99+2000)</f>
+        <f t="shared" si="13"/>
         <v>1995</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2094</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>209</v>
       </c>
       <c r="L99" t="str">
-        <f>LEFT(B99, FIND(" ", B99) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Kloter</v>
       </c>
       <c r="M99" t="str">
-        <f>RIGHT(B99, LEN(B99) - FIND(" ", B99))</f>
+        <f t="shared" si="15"/>
         <v>Marc</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Marc</v>
       </c>
       <c r="O99" t="str">
-        <f>SUBSTITUTE(RIGHT(B99, LEN(B99) - FIND(" ", B99)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Marc</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Wettingen</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>Triathlon-Club-Baden</v>
       </c>
       <c r="S99">
@@ -10395,39 +10401,39 @@
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="4">
-        <f>IF(C100&gt;=20, C100+1900, C100+2000)</f>
+        <f t="shared" si="13"/>
         <v>2006</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2097</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>209</v>
       </c>
       <c r="L100" t="str">
-        <f>LEFT(B100, FIND(" ", B100) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Jurt</v>
       </c>
       <c r="M100" t="str">
-        <f>RIGHT(B100, LEN(B100) - FIND(" ", B100))</f>
+        <f t="shared" si="15"/>
         <v>Mario</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Mario</v>
       </c>
       <c r="O100" t="str">
-        <f>SUBSTITUTE(RIGHT(B100, LEN(B100) - FIND(" ", B100)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Mario</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Faulensee</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>LC-Scharnachtal</v>
       </c>
       <c r="S100">
@@ -10476,39 +10482,39 @@
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="4">
-        <f>IF(C101&gt;=20, C101+1900, C101+2000)</f>
+        <f t="shared" si="13"/>
         <v>1990</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2097</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>209</v>
       </c>
       <c r="L101" t="str">
-        <f>LEFT(B101, FIND(" ", B101) - 1)</f>
+        <f t="shared" si="14"/>
         <v>Kohler</v>
       </c>
       <c r="M101" t="str">
-        <f>RIGHT(B101, LEN(B101) - FIND(" ", B101))</f>
+        <f t="shared" si="15"/>
         <v>Christof</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>Christof</v>
       </c>
       <c r="O101" t="str">
-        <f>SUBSTITUTE(RIGHT(B101, LEN(B101) - FIND(" ", B101)), " ", "-")</f>
+        <f t="shared" si="16"/>
         <v>Christof</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>Wasen-im-Emmental</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S101">
@@ -10547,7 +10553,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10564,7 +10570,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
         <v>267</v>
@@ -10585,7 +10591,7 @@
         <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
